--- a/src/main/resource/TestData.xlsx
+++ b/src/main/resource/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhilash.sharma\Desktop\Github Pages\SeleniumJavaHybridFramework\src\main\resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmacbookair/Documents/Munna/Framework/Best/SeleniumJavaWeb/src/main/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBEF094-AA0F-4284-939D-E4B2502B1B1F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD00919-09DF-0E46-97AE-0F58648D732E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" xr2:uid="{075C9FD4-D79F-4B8C-A89A-47472D94496E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="6940" xr2:uid="{075C9FD4-D79F-4B8C-A89A-47472D94496E}"/>
   </bookViews>
   <sheets>
     <sheet name="TC_Map" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>TC_ID</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>MainPage</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -513,18 +516,18 @@
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="2" customWidth="1"/>
-    <col min="4" max="4" width="50.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="6"/>
+    <col min="4" max="4" width="50.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -564,7 +567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -581,10 +584,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -601,10 +604,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -621,7 +624,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -645,18 +648,18 @@
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -676,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -687,7 +690,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -701,7 +704,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -719,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>

--- a/src/main/resource/TestData.xlsx
+++ b/src/main/resource/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmacbookair/Documents/Munna/Framework/Best/SeleniumJavaWeb/src/main/resource/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmacbookair/Documents/Munna/k8s/k8s-project/SeleniumJavaWeb/src/main/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD00919-09DF-0E46-97AE-0F58648D732E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFF341E-5AD4-114C-8D90-3E61B5692010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20500" windowHeight="6940" xr2:uid="{075C9FD4-D79F-4B8C-A89A-47472D94496E}"/>
   </bookViews>
@@ -513,7 +513,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -584,7 +584,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
